--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2021 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2021 год.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Отчет по выпуску продукции на формокомплектах\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A5195-965C-49EF-B8DE-7120A4586960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571205F2-534A-483C-8145-144415B26FE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="18" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">Апрель!$A$1:$E$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">Декабрь!$A$1:$E$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Июль!$A$1:$E$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Июнь!$A$1:$E$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Июнь!$A$1:$E$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Май!$A$1:$E$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Март!$A$1:$E$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Ноябрь!$A$1:$E$66</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="202">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -251,55 +251,13 @@
     <t>Формокомплект банки  0.45 л        тип III-2-82-450-1</t>
   </si>
   <si>
-    <t>05/06/2020 - 30/06/2020</t>
-  </si>
-  <si>
-    <t>02/06/2020 - 04/06/2020</t>
-  </si>
-  <si>
-    <t>04/06/2020 - 10/06/2020</t>
-  </si>
-  <si>
-    <t>01/06/2020 - 08/06/2020</t>
-  </si>
-  <si>
     <t>Формокомплект банки 1 л.             тип III-2-82-1000-3</t>
   </si>
   <si>
-    <t>09/06/2020 - 14/06/2020</t>
-  </si>
-  <si>
-    <t>01/06/2020 - 01/06/2020</t>
-  </si>
-  <si>
-    <t>15/06/2020 - 23/06/2020</t>
-  </si>
-  <si>
-    <t>11/06/2020 - 12/06/2020</t>
-  </si>
-  <si>
-    <t>16/06/2020 - 18/06/2020</t>
-  </si>
-  <si>
-    <t>19/06/2020 - 22/06/2020</t>
-  </si>
-  <si>
-    <t>24/06/2020 - 29/06/2020</t>
-  </si>
-  <si>
-    <t>30/06/2020 - 30/06/2020</t>
-  </si>
-  <si>
     <t>Формокомплект бутылки 0,5 л. Ice Cube тип XXI-КПМ -26-500-10</t>
   </si>
   <si>
     <t>Формокомплект бутылки 0,5 л. Ice Cube тип XXI-В -28-1-500-10</t>
-  </si>
-  <si>
-    <t>26/06/2020 - 28/06/2020</t>
-  </si>
-  <si>
-    <t>29/06/2020 - 30/06/2020</t>
   </si>
   <si>
     <t>Зам. директора</t>
@@ -704,6 +662,42 @@
   </si>
   <si>
     <t>17/05/2021 - 20/05/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021 - 07/06/2021</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Брест-Колоски 0,5»                      тип XХI-B-28-2.1-500-14</t>
+  </si>
+  <si>
+    <t>01/06/2021 - 03/06/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021 - 10/06/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021 - 13/06/2021</t>
+  </si>
+  <si>
+    <t>08/06/2021 - 30/06/2021</t>
+  </si>
+  <si>
+    <t>21/06/2021 - 27/06/2021</t>
+  </si>
+  <si>
+    <t>15/06/2021 - 20/06/2021</t>
+  </si>
+  <si>
+    <t>28/06/2021 - 30/06/2021</t>
+  </si>
+  <si>
+    <t>11/06/2021 - 14/06/2021</t>
+  </si>
+  <si>
+    <t>04/06/2021 - 06/06/2021</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0,5 л. Белалко тип XXI-КПМ -27-500-22</t>
   </si>
 </sst>
 </file>
@@ -804,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -864,6 +858,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -871,7 +878,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -943,13 +950,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1027,6 +1028,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,15 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1079,6 +1095,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,8 +1507,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>138</v>
+      <c r="A6" s="54" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1505,20 +1552,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1581,7 +1628,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1598,7 +1645,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1615,37 +1662,37 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="65">
+      <c r="C19" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="63">
         <v>827904</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="63">
         <v>866904</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f>D19+D20</f>
         <v>827904</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -1663,14 +1710,14 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D22" s="23">
         <v>1874930</v>
@@ -1680,24 +1727,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="55">
+        <v>133</v>
+      </c>
+      <c r="D23" s="53">
         <v>1732199</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>1755785</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -1714,14 +1761,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D25" s="23">
         <v>5183190</v>
@@ -1729,14 +1776,14 @@
       <c r="E25" s="23">
         <v>5400055</v>
       </c>
-      <c r="F25" s="32" t="e">
+      <c r="F25" s="31" t="e">
         <f>D25+D27+D26</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
@@ -1746,11 +1793,11 @@
       <c r="E26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1809,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -1779,7 +1826,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -1796,14 +1843,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D30" s="23">
         <v>609528</v>
@@ -1813,14 +1860,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>150</v>
+      <c r="A31" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D31" s="23">
         <v>136800</v>
@@ -1828,16 +1875,16 @@
       <c r="E31" s="23">
         <v>155877</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <f>E31+E32</f>
         <v>463115</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="23" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D32" s="23">
         <v>289440</v>
@@ -1845,13 +1892,13 @@
       <c r="E32" s="23">
         <v>307238</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <f>D31+D32</f>
         <v>426240</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -1868,7 +1915,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -1885,7 +1932,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -1902,7 +1949,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -1919,7 +1966,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -1936,14 +1983,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D38" s="23">
         <v>1215886</v>
@@ -1953,14 +2000,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D39" s="23">
         <v>801609</v>
@@ -1970,7 +2017,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -1987,11 +2034,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>23</v>
@@ -2004,10 +2051,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="62" t="s">
+      <c r="A42" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -2021,8 +2068,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="22" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2081,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -2051,14 +2098,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D45" s="23">
         <v>473364</v>
@@ -2068,7 +2115,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -2078,17 +2125,17 @@
         <v>23</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="62" t="s">
+      <c r="A47" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -2100,14 +2147,14 @@
       <c r="E47" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="35" t="e">
+      <c r="F47" s="33" t="e">
         <f>D47+D48-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="22" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2166,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -2136,7 +2183,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -2153,7 +2200,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -2170,7 +2217,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -2187,7 +2234,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -2204,7 +2251,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -2221,14 +2268,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D55" s="23">
         <v>640104</v>
@@ -2238,11 +2285,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>23</v>
@@ -2255,11 +2302,11 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>23</v>
@@ -2272,7 +2319,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -2289,7 +2336,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="21" t="s">
@@ -2306,11 +2353,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
       <c r="D60" s="23">
         <f>SUM(D17:D59)</f>
         <v>13784954</v>
@@ -2345,7 +2392,7 @@
     </row>
     <row r="65" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -2367,6 +2414,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
@@ -2378,11 +2430,6 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A60:C60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,20 +2526,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2555,7 +2602,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -2572,14 +2619,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" s="23">
         <v>889056</v>
@@ -2589,44 +2636,44 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="65">
+      <c r="C19" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="63">
         <v>1041920</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="63">
         <v>1091853</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f>D19+D20</f>
         <v>1041920</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D21" s="23">
         <v>1442916</v>
@@ -2637,7 +2684,7 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -2654,14 +2701,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D23" s="23">
         <v>1469902</v>
@@ -2671,7 +2718,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -2688,14 +2735,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>117</v>
+      <c r="C25" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="25">
         <v>2558790</v>
@@ -2703,40 +2750,40 @@
       <c r="E25" s="24">
         <v>2630930</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f>D25+D27+D26</f>
         <v>4322970</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="43">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="41">
         <v>1334070</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="42">
         <v>1417633</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="43">
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="41">
         <v>430110</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="42">
         <v>467303</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -2753,14 +2800,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D29" s="23">
         <v>1469412</v>
@@ -2770,14 +2817,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D30" s="23">
         <v>893322</v>
@@ -2787,7 +2834,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -2804,7 +2851,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -2821,7 +2868,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -2838,7 +2885,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -2855,7 +2902,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -2872,7 +2919,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -2889,7 +2936,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -2906,7 +2953,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -2923,11 +2970,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>23</v>
@@ -2940,10 +2987,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -2957,8 +3004,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
@@ -2970,7 +3017,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2987,14 +3034,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D43" s="23">
         <v>400950</v>
@@ -3004,7 +3051,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -3021,10 +3068,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -3036,14 +3083,14 @@
       <c r="E45" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="35" t="e">
+      <c r="F45" s="33" t="e">
         <f>D45+D46-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="22" t="s">
         <v>23</v>
       </c>
@@ -3055,14 +3102,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D47" s="23">
         <v>688512</v>
@@ -3072,7 +3119,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -3089,14 +3136,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D49" s="23">
         <v>411600</v>
@@ -3106,7 +3153,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -3123,7 +3170,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -3140,7 +3187,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -3157,7 +3204,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -3174,7 +3221,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -3191,14 +3238,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D55" s="23">
         <v>589152</v>
@@ -3208,14 +3255,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D56" s="23">
         <v>155040</v>
@@ -3225,7 +3272,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -3242,7 +3289,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -3259,11 +3306,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="23">
         <f>SUM(D17:D58)</f>
         <v>13774752</v>
@@ -3298,7 +3345,7 @@
     </row>
     <row r="64" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -3320,12 +3367,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
@@ -3334,6 +3375,12 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3427,20 +3474,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3503,7 +3550,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -3520,7 +3567,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -3537,10 +3584,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -3552,15 +3599,15 @@
       <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="e">
+      <c r="F19" s="31" t="e">
         <f>D19+D20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="23" t="s">
         <v>23</v>
       </c>
@@ -3570,17 +3617,17 @@
       <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D21" s="23">
         <v>1246236</v>
@@ -3591,14 +3638,14 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D22" s="23">
         <v>2481320</v>
@@ -3608,14 +3655,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D23" s="23">
         <v>2724253</v>
@@ -3625,7 +3672,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -3642,14 +3689,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>132</v>
+      <c r="C25" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="D25" s="25">
         <v>1840725</v>
@@ -3657,34 +3704,34 @@
       <c r="E25" s="24">
         <v>1909318</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f>D25+D27+D26</f>
         <v>4836915</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="47">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="45">
         <v>2996190</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <v>3110918</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -3701,7 +3748,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -3718,7 +3765,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -3735,7 +3782,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -3752,7 +3799,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -3769,14 +3816,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D33" s="23">
         <v>569940</v>
@@ -3786,7 +3833,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -3803,7 +3850,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -3820,14 +3867,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D36" s="23">
         <v>1526840</v>
@@ -3837,14 +3884,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D37" s="23">
         <v>640679</v>
@@ -3854,7 +3901,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -3871,11 +3918,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>23</v>
@@ -3888,10 +3935,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -3905,8 +3952,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
@@ -3918,7 +3965,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -3935,7 +3982,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -3952,7 +3999,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -3969,10 +4016,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -3984,14 +4031,14 @@
       <c r="E45" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="35" t="e">
+      <c r="F45" s="33" t="e">
         <f>D45+D46-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="22" t="s">
         <v>23</v>
       </c>
@@ -4003,7 +4050,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -4020,7 +4067,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -4037,14 +4084,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D49" s="23">
         <v>141120</v>
@@ -4054,7 +4101,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -4071,7 +4118,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -4088,7 +4135,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -4105,7 +4152,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -4122,14 +4169,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>23</v>
@@ -4139,14 +4186,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D55" s="23">
         <v>1079808</v>
@@ -4156,11 +4203,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>23</v>
@@ -4173,7 +4220,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -4190,7 +4237,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -4207,11 +4254,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="23">
         <f>SUM(D17:D58)</f>
         <v>15247111</v>
@@ -4246,7 +4293,7 @@
     </row>
     <row r="64" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -4372,20 +4419,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4448,7 +4495,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4465,7 +4512,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4482,10 +4529,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -4497,15 +4544,15 @@
       <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="e">
+      <c r="F19" s="31" t="e">
         <f>D19+D20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="23" t="s">
         <v>23</v>
       </c>
@@ -4515,17 +4562,17 @@
       <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D21" s="23">
         <v>1088892</v>
@@ -4536,7 +4583,7 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -4553,24 +4600,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="53">
+        <v>126</v>
+      </c>
+      <c r="D23" s="51">
         <v>1698438</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="51">
         <v>1750795</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -4587,14 +4634,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>141</v>
+      <c r="C25" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="25">
         <v>7217100</v>
@@ -4602,14 +4649,14 @@
       <c r="E25" s="24">
         <v>7423805</v>
       </c>
-      <c r="F25" s="32" t="e">
+      <c r="F25" s="31" t="e">
         <f>D25+D27+D26</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
@@ -4619,11 +4666,11 @@
       <c r="E26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
       </c>
@@ -4635,7 +4682,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -4652,14 +4699,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D29" s="23">
         <v>2065644</v>
@@ -4669,14 +4716,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D30" s="23">
         <v>283794</v>
@@ -4686,7 +4733,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -4703,14 +4750,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D32" s="23">
         <v>451248</v>
@@ -4720,7 +4767,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -4737,7 +4784,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -4754,7 +4801,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4771,7 +4818,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -4788,7 +4835,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -4805,7 +4852,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -4822,11 +4869,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>23</v>
@@ -4839,14 +4886,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D40" s="23">
         <v>963036</v>
@@ -4856,8 +4903,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
@@ -4869,7 +4916,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -4886,7 +4933,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -4903,7 +4950,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -4920,10 +4967,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -4935,14 +4982,14 @@
       <c r="E45" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="35" t="e">
+      <c r="F45" s="33" t="e">
         <f>D45+D46-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="22" t="s">
         <v>23</v>
       </c>
@@ -4954,7 +5001,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -4971,7 +5018,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -4988,7 +5035,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -5005,7 +5052,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -5022,7 +5069,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -5039,7 +5086,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -5056,14 +5103,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>23</v>
@@ -5073,14 +5120,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D54" s="23">
         <v>1101696</v>
@@ -5090,11 +5137,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>23</v>
@@ -5107,7 +5154,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -5124,7 +5171,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -5141,11 +5188,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="23">
         <f>SUM(D17:D57)</f>
         <v>14869848</v>
@@ -5180,7 +5227,7 @@
     </row>
     <row r="63" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -5202,17 +5249,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5306,20 +5353,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -5382,7 +5429,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -5399,14 +5446,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D18" s="23">
         <v>1267812</v>
@@ -5416,7 +5463,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -5433,7 +5480,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -5451,14 +5498,14 @@
       <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D21" s="23">
         <v>836400</v>
@@ -5468,14 +5515,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D22" s="23">
         <v>2111361</v>
@@ -5485,14 +5532,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D23" s="23">
         <v>1085760</v>
@@ -5502,7 +5549,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -5519,31 +5566,31 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="72">
+      <c r="C25" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="75">
         <v>5773680</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="77">
         <v>5966510</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78"/>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -5560,14 +5607,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D28" s="23">
         <v>1335348</v>
@@ -5577,7 +5624,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -5594,7 +5641,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -5611,7 +5658,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -5628,14 +5675,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D32" s="23">
         <v>746940</v>
@@ -5645,7 +5692,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -5662,7 +5709,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -5679,7 +5726,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -5696,7 +5743,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -5713,7 +5760,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -5730,7 +5777,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -5747,10 +5794,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="22" t="s">
@@ -5764,8 +5811,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="22" t="s">
         <v>23</v>
       </c>
@@ -5777,7 +5824,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -5794,7 +5841,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -5811,7 +5858,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -5828,14 +5875,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D44" s="23">
         <v>429312</v>
@@ -5845,14 +5892,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D45" s="23">
         <v>541992</v>
@@ -5862,7 +5909,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -5879,7 +5926,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -5896,7 +5943,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -5913,7 +5960,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -5930,7 +5977,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -5947,14 +5994,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D51" s="23">
         <v>270270</v>
@@ -5964,7 +6011,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -5981,7 +6028,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -5998,11 +6045,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="23">
         <f>SUM(D17:D53)</f>
         <v>14398875</v>
@@ -6037,7 +6084,7 @@
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -6125,8 +6172,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
-        <v>138</v>
+      <c r="A6" s="54" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6170,20 +6217,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -6246,7 +6293,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6263,7 +6310,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -6280,44 +6327,44 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="65">
+      <c r="C19" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="63">
         <v>2365440</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="63">
         <v>2453533</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f>D19+D20</f>
         <v>2365440</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D21" s="23">
         <v>1264116</v>
@@ -6328,7 +6375,7 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -6345,14 +6392,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="67" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D23" s="23">
         <v>857010</v>
@@ -6362,24 +6409,24 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="55">
+        <v>163</v>
+      </c>
+      <c r="D24" s="53">
         <v>1501066</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="53">
         <v>1538238</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <f>D23+D24</f>
         <v>2358076</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -6396,35 +6443,35 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="C26" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="75">
         <v>6546420</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="77">
         <v>6710090</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="75"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>150</v>
+      <c r="A28" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>23</v>
@@ -6435,14 +6482,14 @@
       <c r="E28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="32" t="e">
+      <c r="F28" s="31" t="e">
         <f>E28+E29</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="23" t="s">
         <v>23</v>
       </c>
@@ -6452,13 +6499,13 @@
       <c r="E29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="32" t="e">
+      <c r="F29" s="31" t="e">
         <f>D28+D29</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -6475,7 +6522,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -6492,7 +6539,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -6509,7 +6556,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -6526,7 +6573,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -6543,14 +6590,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D35" s="23">
         <v>1856414</v>
@@ -6560,7 +6607,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -6577,7 +6624,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -6594,11 +6641,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>23</v>
@@ -6611,10 +6658,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -6628,8 +6675,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="22" t="s">
         <v>23</v>
       </c>
@@ -6641,7 +6688,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -6658,7 +6705,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -6675,14 +6722,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D43" s="23">
         <v>139008</v>
@@ -6692,10 +6739,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -6707,14 +6754,14 @@
       <c r="E44" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="35" t="e">
+      <c r="F44" s="33" t="e">
         <f>D44+D45-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="22" t="s">
         <v>23</v>
       </c>
@@ -6726,7 +6773,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -6743,14 +6790,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D47" s="23">
         <v>372060</v>
@@ -6760,14 +6807,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D48" s="23">
         <v>405720</v>
@@ -6777,14 +6824,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D49" s="23">
         <v>601592</v>
@@ -6793,11 +6840,11 @@
         <v>646320</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -6814,14 +6861,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D51" s="23">
         <v>543438</v>
@@ -6831,7 +6878,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -6848,11 +6895,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>23</v>
@@ -6865,14 +6912,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D54" s="23">
         <v>300960</v>
@@ -6882,7 +6929,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
@@ -6899,7 +6946,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -6916,11 +6963,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
       <c r="D57" s="23">
         <f>SUM(D17:D56)</f>
         <v>16753244</v>
@@ -6955,7 +7002,7 @@
     </row>
     <row r="62" spans="1:6" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -6977,12 +7024,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
@@ -6991,13 +7039,12 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7094,20 +7141,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -7170,7 +7217,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -7187,7 +7234,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -7204,7 +7251,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -7221,7 +7268,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -7239,14 +7286,14 @@
       <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D21" s="23">
         <v>1644920</v>
@@ -7256,14 +7303,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D22" s="23">
         <v>862204</v>
@@ -7273,7 +7320,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -7290,11 +7337,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>150</v>
+      <c r="A24" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>23</v>
@@ -7307,8 +7354,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="22" t="s">
         <v>23</v>
       </c>
@@ -7320,31 +7367,31 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="C26" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="75">
         <v>4425030</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="77">
         <v>4556462</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="76"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -7361,14 +7408,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D29" s="23">
         <v>2531340</v>
@@ -7378,7 +7425,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -7395,11 +7442,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>23</v>
@@ -7412,7 +7459,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -7429,7 +7476,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -7446,7 +7493,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -7463,7 +7510,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -7480,14 +7527,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D36" s="23">
         <v>307230</v>
@@ -7497,7 +7544,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -7514,7 +7561,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -7531,7 +7578,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -7548,31 +7595,31 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="65">
+      <c r="C40" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="63">
         <v>809190</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="63">
         <v>845770</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -7589,7 +7636,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -7606,7 +7653,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -7623,14 +7670,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D45" s="23">
         <v>546048</v>
@@ -7640,14 +7687,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D46" s="23">
         <v>136704</v>
@@ -7657,14 +7704,14 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D47" s="23">
         <v>920832</v>
@@ -7674,7 +7721,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -7691,7 +7738,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -7708,14 +7755,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D50" s="23">
         <v>212072</v>
@@ -7725,11 +7772,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>23</v>
@@ -7742,11 +7789,11 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>23</v>
@@ -7759,7 +7806,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -7776,7 +7823,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -7793,7 +7840,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
@@ -7810,7 +7857,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -7827,7 +7874,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -7844,11 +7891,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="23">
         <f>SUM(D17:D57)</f>
         <v>12395570</v>
@@ -7883,7 +7930,7 @@
     </row>
     <row r="63" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -7941,8 +7988,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8019,20 +8066,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -8095,7 +8142,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -8112,7 +8159,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -8129,14 +8176,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D19" s="23">
         <v>4001536</v>
@@ -8146,14 +8193,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D20" s="23">
         <v>704472</v>
@@ -8164,11 +8211,11 @@
       <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>23</v>
@@ -8181,14 +8228,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D22" s="23">
         <v>2339897</v>
@@ -8198,7 +8245,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -8215,55 +8262,55 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="65">
+      <c r="A24" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="63">
         <v>770400</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="63">
         <v>797126</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="66"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="C26" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="75">
         <v>2832165</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="77">
         <v>2895127</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="76"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -8280,7 +8327,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -8297,7 +8344,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -8314,11 +8361,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>23</v>
@@ -8331,7 +8378,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -8348,7 +8395,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -8365,7 +8412,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -8382,7 +8429,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -8399,14 +8446,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D36" s="23">
         <v>2670108</v>
@@ -8416,7 +8463,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -8433,7 +8480,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -8450,7 +8497,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -8467,10 +8514,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -8484,8 +8531,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
@@ -8497,7 +8544,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -8514,7 +8561,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -8531,7 +8578,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -8548,14 +8595,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D45" s="23">
         <v>611112</v>
@@ -8565,14 +8612,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D46" s="23">
         <v>231936</v>
@@ -8582,7 +8629,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -8599,7 +8646,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -8616,7 +8663,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -8633,7 +8680,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -8650,11 +8697,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>23</v>
@@ -8667,11 +8714,11 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>23</v>
@@ -8684,14 +8731,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D53" s="23">
         <v>450576</v>
@@ -8701,7 +8748,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -8718,7 +8765,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
@@ -8735,14 +8782,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D56" s="23">
         <v>659772</v>
@@ -8752,7 +8799,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -8769,11 +8816,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="23">
         <f>SUM(D17:D57)</f>
         <v>15271974</v>
@@ -8808,7 +8855,7 @@
     </row>
     <row r="63" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -8830,13 +8877,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A24:A25"/>
@@ -8845,6 +8885,13 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -8861,10 +8908,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711ED7F-7195-45E3-B967-4DCCDDA2DC77}">
-  <dimension ref="A2:J64"/>
+  <dimension ref="A2:J63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8906,7 +8953,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
@@ -8941,20 +8988,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -9017,7 +9064,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -9034,7 +9081,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -9050,729 +9097,717 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="61">
+        <v>1467136</v>
+      </c>
+      <c r="E19" s="61">
+        <v>1528866</v>
+      </c>
+      <c r="F19" s="31" t="e">
+        <f>D19+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="23">
+        <v>536400</v>
+      </c>
+      <c r="E20" s="23">
+        <v>552989</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2152913</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2193539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="86">
+        <v>1078560</v>
+      </c>
+      <c r="E23" s="86">
+        <v>1113316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+    </row>
+    <row r="25" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="92">
+        <v>5336280</v>
+      </c>
+      <c r="E25" s="92">
+        <v>5505714</v>
+      </c>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1030176</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1077216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="23">
+        <v>859392</v>
+      </c>
+      <c r="E41" s="23">
+        <v>900561</v>
+      </c>
+      <c r="F41" s="33">
+        <f>D41+D42</f>
+        <v>1294392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="23">
+        <v>435000</v>
+      </c>
+      <c r="E42" s="23">
+        <v>447922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="23">
+        <v>998224</v>
+      </c>
+      <c r="E43" s="23">
+        <v>1046797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="23">
+        <v>568890</v>
+      </c>
+      <c r="E46" s="23">
+        <v>595350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="23">
+        <v>468768</v>
+      </c>
+      <c r="E52" s="23">
+        <v>488851</v>
+      </c>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+    </row>
+    <row r="53" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+    </row>
+    <row r="54" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="91">
+        <v>450576</v>
+      </c>
+      <c r="E54" s="91">
+        <v>489940</v>
+      </c>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+    </row>
+    <row r="55" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="23">
+        <f>SUM(D17:D55)</f>
+        <v>15382315</v>
+      </c>
+      <c r="E56" s="23">
+        <f>SUM(E17:E55)</f>
+        <v>15941061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="23">
-        <v>1706896</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1772456</v>
-      </c>
-      <c r="F19" s="32">
-        <f>D19+D20</f>
-        <v>1901200</v>
-      </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="23">
-        <v>194304</v>
-      </c>
-      <c r="E20" s="23">
-        <v>219298</v>
-      </c>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1054920</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1095588</v>
-      </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="23">
-        <v>745790</v>
-      </c>
-      <c r="E22" s="23">
-        <v>820325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1784139</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1877005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="25">
-        <v>204120</v>
-      </c>
-      <c r="E26" s="24">
-        <v>205981</v>
-      </c>
-      <c r="F26" s="32">
-        <f>D26+D27</f>
-        <v>5314410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="25">
-        <v>5110290</v>
-      </c>
-      <c r="E27" s="31">
-        <v>5309982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1033704</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1070878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="23">
-        <v>266112</v>
-      </c>
-      <c r="E34" s="23">
-        <v>320803</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="23">
-        <v>593978</v>
-      </c>
-      <c r="E36" s="23">
-        <v>623589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="23">
-        <v>1360128</v>
-      </c>
-      <c r="E46" s="23">
-        <v>1514164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="23">
-        <v>382590</v>
-      </c>
-      <c r="E47" s="23">
-        <v>413025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="23">
-        <v>435936</v>
-      </c>
-      <c r="E54" s="23">
-        <v>461100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="23">
-        <v>297312</v>
-      </c>
-      <c r="E55" s="23">
-        <v>312883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="23">
-        <f>SUM(D17:D56)</f>
-        <v>15170219</v>
-      </c>
-      <c r="E57" s="23">
-        <f>SUM(E17:E56)</f>
-        <v>16017077</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-    </row>
-    <row r="61" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62" s="12" t="s">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A57:C57"/>
+  <mergeCells count="10">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="6" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="4" man="1"/>
+    <brk id="36" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -9784,8 +9819,8 @@
   </sheetPr>
   <dimension ref="A2:J66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9862,20 +9897,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -9938,7 +9973,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -9955,7 +9990,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -9972,44 +10007,44 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="65">
+      <c r="C19" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="63">
         <v>2126080</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="63">
         <v>2211957</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <f>D19+D20</f>
         <v>2126080</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D21" s="23">
         <v>876120</v>
@@ -10020,14 +10055,14 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D22" s="23">
         <v>460020</v>
@@ -10037,7 +10072,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -10054,7 +10089,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -10071,7 +10106,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -10088,35 +10123,35 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="C26" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="75">
         <v>5799195</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="77">
         <v>5934931</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <f>D26+D27</f>
         <v>5799195</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="75"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -10133,14 +10168,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D29" s="23">
         <v>582120</v>
@@ -10150,14 +10185,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D30" s="23">
         <v>1033122</v>
@@ -10167,7 +10202,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -10184,7 +10219,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -10201,7 +10236,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -10218,7 +10253,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -10235,7 +10270,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -10252,7 +10287,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -10269,7 +10304,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -10286,7 +10321,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -10303,11 +10338,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>23</v>
@@ -10320,31 +10355,31 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="65">
+      <c r="C40" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="63">
         <v>909090</v>
       </c>
-      <c r="E40" s="65">
+      <c r="E40" s="63">
         <v>990230</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -10361,7 +10396,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -10378,14 +10413,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D44" s="23">
         <v>1254912</v>
@@ -10395,14 +10430,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D45" s="23">
         <f>523776-6912</f>
@@ -10411,16 +10446,16 @@
       <c r="E45" s="23">
         <v>556309</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="33">
         <f>D45+D46-57200-867072</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D46" s="23">
         <v>407408</v>
@@ -10430,7 +10465,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -10447,7 +10482,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -10464,14 +10499,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D49" s="23">
         <v>408660</v>
@@ -10481,7 +10516,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -10498,7 +10533,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -10515,7 +10550,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -10532,7 +10567,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -10549,7 +10584,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -10566,11 +10601,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>23</v>
@@ -10583,11 +10618,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>23</v>
@@ -10600,7 +10635,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -10617,7 +10652,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -10634,11 +10669,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="23">
         <f>SUM(D17:D58)</f>
         <v>14373591</v>
@@ -10673,7 +10708,7 @@
     </row>
     <row r="64" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -10695,11 +10730,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
@@ -10715,6 +10745,11 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10811,20 +10846,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -10887,7 +10922,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -10904,7 +10939,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -10921,10 +10956,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -10936,15 +10971,15 @@
       <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="e">
+      <c r="F19" s="31" t="e">
         <f>D19+D20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="22" t="s">
         <v>23</v>
       </c>
@@ -10954,17 +10989,17 @@
       <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D21" s="23">
         <v>1078164</v>
@@ -10975,14 +11010,14 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D22" s="23">
         <v>522750</v>
@@ -10992,14 +11027,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D23" s="23">
         <v>2867088</v>
@@ -11009,7 +11044,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -11026,7 +11061,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -11043,35 +11078,35 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="62" t="s">
+      <c r="A26" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="C26" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="75">
         <v>3313305</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="77">
         <v>3445761</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <f>D26+D27</f>
         <v>3313305</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="75"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -11088,14 +11123,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D29" s="23">
         <v>603288</v>
@@ -11105,14 +11140,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D30" s="23">
         <v>876546</v>
@@ -11122,7 +11157,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -11139,14 +11174,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D32" s="23">
         <v>100912</v>
@@ -11156,7 +11191,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -11173,14 +11208,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D34" s="23">
         <v>460416</v>
@@ -11190,7 +11225,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -11207,14 +11242,14 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D36" s="23">
         <v>1070650</v>
@@ -11224,7 +11259,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -11241,7 +11276,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -11258,11 +11293,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>23</v>
@@ -11275,10 +11310,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -11292,8 +11327,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="22" t="s">
         <v>23</v>
       </c>
@@ -11305,7 +11340,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -11322,7 +11357,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -11339,14 +11374,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D44" s="23">
         <v>724992</v>
@@ -11356,35 +11391,35 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="62" t="s">
+      <c r="A45" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="65">
+      <c r="C45" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="63">
         <v>498800</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="63">
         <v>533705</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="33">
         <f>D45+D46-57200-867072</f>
         <v>-425472</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -11401,7 +11436,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -11418,7 +11453,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -11435,7 +11470,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -11452,7 +11487,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -11469,7 +11504,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -11486,14 +11521,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D53" s="23">
         <v>720594</v>
@@ -11503,14 +11538,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D54" s="23">
         <v>461304</v>
@@ -11520,11 +11555,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>23</v>
@@ -11537,11 +11572,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>23</v>
@@ -11554,7 +11589,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -11571,7 +11606,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -11588,11 +11623,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
       <c r="D59" s="23">
         <f>SUM(D17:D58)</f>
         <v>13298809</v>
@@ -11627,7 +11662,7 @@
     </row>
     <row r="64" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -11649,11 +11684,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="A11:E11"/>
@@ -11666,6 +11696,11 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11762,20 +11797,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -11838,7 +11873,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -11855,7 +11890,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -11872,10 +11907,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -11887,15 +11922,15 @@
       <c r="E19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="32" t="e">
+      <c r="F19" s="31" t="e">
         <f>D19+D20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="22" t="s">
         <v>23</v>
       </c>
@@ -11905,17 +11940,17 @@
       <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D21" s="23">
         <v>514944</v>
@@ -11926,14 +11961,14 @@
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D22" s="23">
         <v>1324300</v>
@@ -11943,14 +11978,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D23" s="23">
         <v>170660</v>
@@ -11960,7 +11995,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -11977,14 +12012,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>104</v>
+      <c r="C25" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="25">
         <v>688905</v>
@@ -11992,26 +12027,26 @@
       <c r="E25" s="24">
         <v>709813</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <f>D25+D26</f>
         <v>3889215</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="39">
+      <c r="A26" s="66"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="37">
         <v>3200310</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <v>3315514</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -12028,14 +12063,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D28" s="23">
         <v>1598184</v>
@@ -12045,14 +12080,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D29" s="23">
         <v>1063878</v>
@@ -12062,7 +12097,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -12079,14 +12114,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D31" s="23">
         <v>156128</v>
@@ -12096,7 +12131,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -12113,7 +12148,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -12130,7 +12165,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -12147,14 +12182,14 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D35" s="23">
         <v>307230</v>
@@ -12164,7 +12199,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -12181,7 +12216,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -12198,11 +12233,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>23</v>
@@ -12215,31 +12250,31 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="65">
+      <c r="C39" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="63">
         <v>983016</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="63">
         <v>1020816</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="19" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -12256,7 +12291,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -12273,7 +12308,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -12290,10 +12325,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -12305,14 +12340,14 @@
       <c r="E44" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="35" t="e">
+      <c r="F44" s="33" t="e">
         <f>D44+D45-57200-867072</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="22" t="s">
         <v>23</v>
       </c>
@@ -12324,7 +12359,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="21" t="s">
@@ -12341,7 +12376,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -12358,7 +12393,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="21" t="s">
@@ -12375,7 +12410,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -12392,7 +12427,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -12409,7 +12444,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -12426,7 +12461,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -12443,7 +12478,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -12460,14 +12495,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D54" s="23">
         <v>590976</v>
@@ -12477,14 +12512,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D55" s="23">
         <v>308256</v>
@@ -12494,7 +12529,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="21" t="s">
@@ -12511,7 +12546,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="21" t="s">
@@ -12528,11 +12563,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
       <c r="D58" s="23">
         <f>SUM(D17:D57)</f>
         <v>10906787</v>
@@ -12567,7 +12602,7 @@
     </row>
     <row r="63" spans="1:5" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -12589,6 +12624,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:D40"/>
@@ -12597,12 +12638,6 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
